--- a/data_output/prism_passive/all_passive_Stiffness at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at common max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.69469515297385132</v>
+        <v>0.69469514315221181</v>
       </c>
       <c r="C2">
-        <v>0.9317296550154327</v>
+        <v>0.93172964420940696</v>
       </c>
       <c r="D2">
-        <v>1.1438256085132061</v>
+        <v>1.1438255959833041</v>
       </c>
       <c r="E2">
-        <v>0.98912292946982239</v>
+        <v>0.98912291747304726</v>
       </c>
       <c r="F2">
-        <v>1.6723643394994463</v>
+        <v>1.6723643167192734</v>
       </c>
       <c r="G2">
-        <v>1.0109031732199862</v>
+        <v>1.0109031593685698</v>
       </c>
       <c r="H2">
-        <v>1.0850923540461277</v>
+        <v>1.0850923424094718</v>
       </c>
       <c r="I2">
-        <v>1.222861158605284</v>
+        <v>1.2228611410283197</v>
       </c>
       <c r="J2">
-        <v>1.2740004044633511</v>
+        <v>1.2740003918544356</v>
       </c>
       <c r="K2">
-        <v>1.7425526989562941</v>
+        <v>1.7425526775728697</v>
       </c>
       <c r="L2">
-        <v>0.56417993207229977</v>
+        <v>0.56417992376655179</v>
       </c>
       <c r="M2">
-        <v>2.1530464133863783</v>
+        <v>2.1530463861393008</v>
       </c>
       <c r="N2">
-        <v>0.99746181380521026</v>
+        <v>0.99746179843946625</v>
       </c>
       <c r="O2">
-        <v>0.36821453835003298</v>
+        <v>0.36821453340117349</v>
       </c>
       <c r="P2">
-        <v>2.1189204667796631</v>
+        <v>2.1189204260201708</v>
       </c>
       <c r="Q2">
-        <v>0.87458801606595504</v>
+        <v>0.87458800602456954</v>
       </c>
       <c r="R2">
-        <v>1.7320136066756491</v>
+        <v>1.732013587328832</v>
       </c>
       <c r="S2">
-        <v>4.6738345774106289</v>
+        <v>4.673834539050322</v>
       </c>
       <c r="T2">
-        <v>0.88126662593429672</v>
+        <v>0.88126661985999233</v>
       </c>
       <c r="U2">
-        <v>1.2997865156803305</v>
+        <v>1.2997864910404484</v>
       </c>
       <c r="V2">
-        <v>2.0553686290132189</v>
+        <v>2.0553686042457073</v>
       </c>
       <c r="W2">
-        <v>0.88877065495358698</v>
+        <v>0.88877064309622589</v>
       </c>
       <c r="X2">
-        <v>0.61787749414290505</v>
+        <v>0.6178774843418664</v>
       </c>
       <c r="Y2">
-        <v>1.0484220966402715</v>
+        <v>1.0484220833745961</v>
       </c>
       <c r="Z2">
-        <v>0.41852611279688556</v>
+        <v>0.41852610724384937</v>
       </c>
       <c r="AA2">
-        <v>1.0079770350640738</v>
+        <v>1.0079770199300144</v>
       </c>
       <c r="AB2">
-        <v>0.37967610907475569</v>
+        <v>0.37967610396043144</v>
       </c>
       <c r="AC2">
-        <v>0.64189356763499394</v>
+        <v>0.64189355797135761</v>
       </c>
       <c r="AD2">
-        <v>0.40658701738910685</v>
+        <v>0.40658701035072053</v>
       </c>
       <c r="AE2">
-        <v>0.85590734097921906</v>
+        <v>0.85590732814704862</v>
       </c>
       <c r="AF2">
-        <v>1.1356307029147279</v>
+        <v>1.1356306812155927</v>
       </c>
       <c r="AG2">
-        <v>0.59261039329250065</v>
+        <v>0.59261038524887377</v>
       </c>
       <c r="AH2">
-        <v>0.71464356706383003</v>
+        <v>0.71464355376400968</v>
       </c>
       <c r="AI2">
-        <v>0.99583567965056585</v>
+        <v>0.99583567282220009</v>
       </c>
       <c r="AJ2">
-        <v>2.2515847410042249</v>
+        <v>2.2515847149209609</v>
       </c>
       <c r="AK2">
-        <v>0.46396065997956604</v>
+        <v>0.46396065321106611</v>
       </c>
       <c r="AL2">
-        <v>0.8767363543469</v>
+        <v>0.87673634168752446</v>
       </c>
       <c r="AM2">
-        <v>1.2415449517040191</v>
+        <v>1.2415449353312429</v>
       </c>
       <c r="AN2">
-        <v>0.32967836425403763</v>
+        <v>0.32967835974635573</v>
       </c>
       <c r="AO2">
-        <v>1.0299181815929623</v>
+        <v>1.0299181688513521</v>
       </c>
       <c r="AP2">
-        <v>0.76904150388212522</v>
+        <v>0.76904149257197718</v>
       </c>
       <c r="AQ2">
-        <v>0.74702528211228847</v>
+        <v>0.7470252734260806</v>
       </c>
       <c r="AR2">
-        <v>2.4126794561711113</v>
+        <v>2.4126794145199573</v>
       </c>
       <c r="AS2">
-        <v>1.5177680865617784</v>
+        <v>1.5177680687377619</v>
       </c>
       <c r="AT2">
-        <v>0.41819084075626367</v>
+        <v>0.41819083408422747</v>
       </c>
       <c r="AU2">
-        <v>2.267498180172848</v>
+        <v>2.2674981520130526</v>
       </c>
       <c r="AV2">
-        <v>0.56605250833665033</v>
+        <v>0.5660525014639417</v>
       </c>
       <c r="AW2">
-        <v>0.48005595450344341</v>
+        <v>0.48005594784264083</v>
       </c>
       <c r="AX2">
-        <v>0.57609784023141075</v>
+        <v>0.57609783249643043</v>
       </c>
       <c r="AY2">
-        <v>0.53479213202608822</v>
+        <v>0.53479212379778041</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.94770083980356534</v>
+        <v>0.94770082470245853</v>
       </c>
       <c r="C3">
-        <v>0.64166198503314475</v>
+        <v>0.64166197571696726</v>
       </c>
       <c r="D3">
-        <v>1.1317574064183653</v>
+        <v>1.1317573872005935</v>
       </c>
       <c r="E3">
-        <v>4.0503829784202132</v>
+        <v>4.0503829383342156</v>
       </c>
       <c r="F3">
-        <v>0.34653890026430856</v>
+        <v>0.34653889601460197</v>
       </c>
       <c r="G3">
-        <v>1.0524698551796545</v>
+        <v>1.0524698430936321</v>
       </c>
       <c r="H3">
-        <v>1.6981993902598025</v>
+        <v>1.6981993713341195</v>
       </c>
       <c r="I3">
-        <v>0.97347415873820853</v>
+        <v>0.97347415096018031</v>
       </c>
       <c r="J3">
-        <v>1.1196075721542633</v>
+        <v>1.1196075583052343</v>
       </c>
       <c r="K3">
-        <v>1.5781113721711135</v>
+        <v>1.5781113558831199</v>
       </c>
       <c r="L3">
-        <v>1.1079616446762206</v>
+        <v>1.1079616313555705</v>
       </c>
       <c r="M3">
-        <v>1.2299516132360195</v>
+        <v>1.2301100083758165</v>
       </c>
       <c r="N3">
-        <v>1.1936513836716656</v>
+        <v>1.1936513668733382</v>
       </c>
       <c r="O3">
-        <v>0.84239656437002475</v>
+        <v>0.84239655426123239</v>
       </c>
       <c r="P3">
-        <v>2.6659193797954068</v>
+        <v>2.6659193403579273</v>
       </c>
       <c r="Q3">
-        <v>0.95381739784894959</v>
+        <v>0.95381738311179121</v>
       </c>
       <c r="R3">
-        <v>0.68706273248245164</v>
+        <v>0.68706272272411895</v>
       </c>
       <c r="S3">
-        <v>2.6882783465835924</v>
+        <v>2.6882783079921841</v>
       </c>
       <c r="T3">
-        <v>1.3388674406075483</v>
+        <v>1.3388674240017089</v>
       </c>
       <c r="U3">
-        <v>1.5053550409657084</v>
+        <v>1.5053550256599966</v>
       </c>
       <c r="V3">
-        <v>3.5242198792552628</v>
+        <v>3.524219848149849</v>
       </c>
       <c r="W3">
-        <v>0.87034545966335275</v>
+        <v>0.87034544298711203</v>
       </c>
       <c r="X3">
-        <v>1.1747325735665002</v>
+        <v>1.1747325546652863</v>
       </c>
       <c r="Y3">
-        <v>1.0811401553378488</v>
+        <v>1.0811401377785343</v>
       </c>
       <c r="Z3">
-        <v>0.59190597929918654</v>
+        <v>0.59190597276374712</v>
       </c>
       <c r="AA3">
-        <v>0.54430411500789977</v>
+        <v>0.54430410870250767</v>
       </c>
       <c r="AB3">
-        <v>0.48800200405269512</v>
+        <v>0.48800199597470795</v>
       </c>
       <c r="AC3">
-        <v>0.503670647402372</v>
+        <v>0.50367064151253416</v>
       </c>
       <c r="AD3">
-        <v>1.0982098705789791</v>
+        <v>1.0982098562694977</v>
       </c>
       <c r="AE3">
-        <v>0.32662931062031247</v>
+        <v>0.32662930615227576</v>
       </c>
       <c r="AF3">
-        <v>0.83279202497449289</v>
+        <v>0.83279201168428596</v>
       </c>
       <c r="AG3">
-        <v>1.1063688669051626</v>
+        <v>1.1063688513228576</v>
       </c>
       <c r="AH3">
-        <v>0.73422100594853867</v>
+        <v>0.73422099644744998</v>
       </c>
       <c r="AI3">
-        <v>0.64677773228288693</v>
+        <v>0.64677772351110263</v>
       </c>
       <c r="AJ3">
-        <v>2.064383671793383</v>
+        <v>2.0643836512471627</v>
       </c>
       <c r="AK3">
-        <v>0.53649425170974052</v>
+        <v>0.53649424469804163</v>
       </c>
       <c r="AL3">
-        <v>1.1248677039156032</v>
+        <v>1.1248676858905902</v>
       </c>
       <c r="AM3">
-        <v>1.2688178523904621</v>
+        <v>1.268817834940307</v>
       </c>
       <c r="AN3">
-        <v>0.50381909750880083</v>
+        <v>0.50381909001118808</v>
       </c>
       <c r="AO3">
-        <v>1.5135450014052112</v>
+        <v>1.513544981254803</v>
       </c>
       <c r="AP3">
-        <v>0.66229411341284194</v>
+        <v>0.66229410441764403</v>
       </c>
       <c r="AQ3">
-        <v>0.60996974101589052</v>
+        <v>0.60996973105380636</v>
       </c>
       <c r="AR3">
-        <v>1.7103874729572734</v>
+        <v>1.710387454056169</v>
       </c>
       <c r="AS3">
-        <v>0.84743970449224792</v>
+        <v>0.8474396938159553</v>
       </c>
       <c r="AT3">
-        <v>0.45546491877605977</v>
+        <v>0.45546491111152543</v>
       </c>
       <c r="AU3">
-        <v>1.7446364864006041</v>
+        <v>1.7446364705085209</v>
       </c>
       <c r="AV3">
-        <v>0.44708173428574083</v>
+        <v>0.44708172840057847</v>
       </c>
       <c r="AW3">
-        <v>0.50363751154171243</v>
+        <v>0.50363750460663059</v>
       </c>
       <c r="AX3">
-        <v>0.97535273908554099</v>
+        <v>0.9753527269837865</v>
       </c>
       <c r="AY3">
-        <v>1.365427289771749</v>
+        <v>1.3654272698749295</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_Stiffness at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at common max ROM.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.69469514315221181</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.93172964420940696</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.1438255959833041</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.98912291747304726</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.6723643167192734</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.0109031593685698</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.0850923424094718</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.2228611410283197</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.2740003918544356</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.7425526775728697</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.56417992376655179</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.1530463861393008</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.99746179843946625</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.36821453340117349</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.1189204260201708</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.87458800602456954</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.732013587328832</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>4.673834539050322</v>
@@ -588,55 +477,55 @@
         <v>0.41852610724384937</v>
       </c>
       <c r="AA2">
-        <v>1.0079770199300144</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.37967610396043144</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.64189355797135761</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.40658701035072053</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.85590732814704862</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.1356306812155927</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.59261038524887377</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.71464355376400968</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.99583567282220009</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.2515847149209609</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.46396065321106611</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.87673634168752446</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.2415449353312429</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.32967835974635573</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.0299181688513521</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.76904149257197718</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.7470252734260806</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>2.4126794145199573</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>0.94770082470245853</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.64166197571696726</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.1317573872005935</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.0503829383342156</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.34653889601460197</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.0524698430936321</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.6981993713341195</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.97347415096018031</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.1196075583052343</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.5781113558831199</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.1079616313555705</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.2301100083758165</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.1936513668733382</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.84239655426123239</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.6659193403579273</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.95381738311179121</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.68706272272411895</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>2.6882783079921841</v>
@@ -743,55 +629,55 @@
         <v>0.59190597276374712</v>
       </c>
       <c r="AA3">
-        <v>0.54430410870250767</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.48800199597470795</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.50367064151253416</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.0982098562694977</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.32662930615227576</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.83279201168428596</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.1063688513228576</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.73422099644744998</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.64677772351110263</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.0643836512471627</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.53649424469804163</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.1248676858905902</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.268817834940307</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.50381909001118808</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.513544981254803</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.66229410441764403</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.60996973105380636</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.710387454056169</v>

--- a/data_output/prism_passive/all_passive_Stiffness at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at common max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.80537037591558147</v>
+        <v>0.45355212704528869</v>
       </c>
       <c r="C2">
-        <v>1.0356952389633971</v>
+        <v>1.9639324952430477</v>
       </c>
       <c r="D2">
-        <v>1.2318294475406413</v>
+        <v>0.41317376586636378</v>
       </c>
       <c r="E2">
-        <v>1.2531466806239924</v>
+        <v>0.90333765667704258</v>
       </c>
       <c r="F2">
         <v>1.802427500494852</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0788420003595696</v>
+        <v>0.95181260226671338</v>
       </c>
       <c r="C3">
-        <v>0.74261907634388891</v>
+        <v>0.75663539154710158</v>
       </c>
       <c r="D3">
-        <v>1.2336308102525264</v>
+        <v>0.58953414315802211</v>
       </c>
       <c r="E3">
-        <v>4.3186396475790776</v>
+        <v>0.74633447383251594</v>
       </c>
       <c r="F3">
         <v>0.41643813931343321</v>

--- a/data_output/prism_passive/all_passive_Stiffness at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at common max ROM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.80537037591558147</v>
+        <v>1.1088231157342747</v>
       </c>
       <c r="C2">
-        <v>1.0356952389633971</v>
+        <v>0.45355212704528869</v>
       </c>
       <c r="D2">
-        <v>1.2318294475406413</v>
+        <v>1.4188735565816963</v>
       </c>
       <c r="E2">
-        <v>1.2531466806239924</v>
+        <v>0.41317376586636378</v>
       </c>
       <c r="F2">
         <v>1.802427500494852</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0788420003595696</v>
+        <v>1.3703464467278372</v>
       </c>
       <c r="C3">
-        <v>0.74261907634388891</v>
+        <v>0.95181260226671338</v>
       </c>
       <c r="D3">
-        <v>1.2336308102525264</v>
+        <v>1.4712168892325963</v>
       </c>
       <c r="E3">
-        <v>4.3186396475790776</v>
+        <v>0.58953414315802211</v>
       </c>
       <c r="F3">
         <v>0.41643813931343321</v>

--- a/data_output/prism_passive/all_passive_Stiffness at common max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at common max ROM.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.80537036518456706</v>
+      </c>
+      <c r="C2">
+        <v>1.0356952274784099</v>
+      </c>
+      <c r="D2">
+        <v>1.2318294344724101</v>
+      </c>
+      <c r="E2">
+        <v>1.2531466663311779</v>
+      </c>
+      <c r="F2">
+        <v>1.8024274768442616</v>
+      </c>
+      <c r="G2">
+        <v>1.1621791337291132</v>
+      </c>
+      <c r="H2">
+        <v>1.2002712777793674</v>
+      </c>
+      <c r="I2">
+        <v>1.3789348908395858</v>
+      </c>
+      <c r="J2">
+        <v>1.4086171976859529</v>
+      </c>
+      <c r="K2">
+        <v>1.9107278477818754</v>
+      </c>
+      <c r="L2">
+        <v>0.63720621360455287</v>
+      </c>
+      <c r="M2">
+        <v>2.3696992539792632</v>
+      </c>
+      <c r="N2">
         <v>1.1088231157342747</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>0.45355212704528869</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.2960701682797868</v>
+      </c>
+      <c r="Q2">
+        <v>1.0004244859987357</v>
+      </c>
+      <c r="R2">
+        <v>1.9639324952430477</v>
+      </c>
+      <c r="S2">
+        <v>4.8928255456183232</v>
+      </c>
+      <c r="T2">
+        <v>1.0851730894953375</v>
+      </c>
+      <c r="U2">
+        <v>1.4125605087458468</v>
+      </c>
+      <c r="V2">
+        <v>2.3163206730925081</v>
+      </c>
+      <c r="W2">
+        <v>1.0057750557302514</v>
+      </c>
+      <c r="X2">
+        <v>0.68182508966197597</v>
+      </c>
+      <c r="Y2">
+        <v>1.2076450509723251</v>
+      </c>
+      <c r="Z2">
+        <v>0.49078514682742658</v>
+      </c>
+      <c r="AA2">
+        <v>1.1626410812631416</v>
+      </c>
+      <c r="AB2">
+        <v>0.44721951490576151</v>
+      </c>
+      <c r="AC2">
+        <v>0.7693628702836155</v>
+      </c>
+      <c r="AD2">
+        <v>0.53351842473828337</v>
+      </c>
+      <c r="AE2">
+        <v>0.98958746224608585</v>
+      </c>
+      <c r="AF2">
+        <v>1.2919396138436916</v>
+      </c>
+      <c r="AG2">
+        <v>0.59533228302076557</v>
+      </c>
+      <c r="AH2">
+        <v>0.88671331854430702</v>
+      </c>
+      <c r="AI2">
+        <v>1.1018074574446164</v>
+      </c>
+      <c r="AJ2">
+        <v>2.5258065455307208</v>
+      </c>
+      <c r="AK2">
+        <v>0.55969272747295173</v>
+      </c>
+      <c r="AL2">
+        <v>1.0447225776819664</v>
+      </c>
+      <c r="AM2">
         <v>1.4188735565816963</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.41317376586636378</v>
       </c>
-      <c r="F2">
-        <v>1.802427500494852</v>
-      </c>
-      <c r="G2">
-        <v>1.1621791476781853</v>
-      </c>
-      <c r="H2">
-        <v>1.2002712893458283</v>
-      </c>
-      <c r="I2">
-        <v>1.3789349083018247</v>
-      </c>
-      <c r="J2">
-        <v>1.4086172109197421</v>
-      </c>
-      <c r="K2">
-        <v>1.9107278705009367</v>
-      </c>
-      <c r="L2">
-        <v>0.63720622046324116</v>
-      </c>
-      <c r="M2">
-        <v>2.3696992822644782</v>
-      </c>
-      <c r="N2">
-        <v>1.1088231307132614</v>
-      </c>
-      <c r="O2">
-        <v>0.45355213421354623</v>
-      </c>
-      <c r="P2">
-        <v>2.2960702104511546</v>
-      </c>
-      <c r="Q2">
-        <v>1.0004244963636093</v>
-      </c>
-      <c r="R2">
-        <v>1.9639325155277789</v>
-      </c>
-      <c r="S2">
-        <v>4.8928255882910481</v>
-      </c>
-      <c r="T2">
-        <v>1.0851730959697194</v>
-      </c>
-      <c r="U2">
-        <v>1.4125605346559704</v>
-      </c>
-      <c r="V2">
-        <v>2.316320698762715</v>
-      </c>
-      <c r="W2">
-        <v>1.0057750686186877</v>
-      </c>
-      <c r="X2">
-        <v>0.68182509879623066</v>
-      </c>
-      <c r="Y2">
-        <v>1.2076450660386413</v>
-      </c>
-      <c r="Z2">
-        <v>0.49078515241315068</v>
-      </c>
-      <c r="AA2">
-        <v>1.1626410980544184</v>
-      </c>
-      <c r="AB2">
-        <v>0.4472195196049823</v>
-      </c>
-      <c r="AC2">
-        <v>0.76936288306803036</v>
-      </c>
-      <c r="AD2">
-        <v>0.53351843329418391</v>
-      </c>
-      <c r="AE2">
-        <v>0.98958747541643444</v>
-      </c>
-      <c r="AF2">
-        <v>1.2919396363685349</v>
-      </c>
-      <c r="AG2">
-        <v>0.5953322874369722</v>
-      </c>
-      <c r="AH2">
-        <v>0.88671333363809879</v>
-      </c>
-      <c r="AI2">
-        <v>1.1018074643022513</v>
-      </c>
-      <c r="AJ2">
-        <v>2.5258065757863326</v>
-      </c>
-      <c r="AK2">
-        <v>0.55969273454319768</v>
-      </c>
-      <c r="AL2">
-        <v>1.0447225892938725</v>
-      </c>
-      <c r="AM2">
-        <v>1.418873572641594</v>
-      </c>
-      <c r="AN2">
-        <v>0.41317377068672811</v>
-      </c>
       <c r="AO2">
-        <v>1.1755422923623515</v>
+        <v>1.1755422787272805</v>
       </c>
       <c r="AP2">
-        <v>0.82022286191648308</v>
+        <v>0.82022284945635315</v>
       </c>
       <c r="AQ2">
-        <v>0.90333766456109144</v>
+        <v>0.90333765667704258</v>
       </c>
       <c r="AR2">
-        <v>2.6466658875082918</v>
+        <v>2.646665844724267</v>
       </c>
       <c r="AS2">
-        <v>1.6854048160273223</v>
+        <v>1.6854048009336826</v>
       </c>
       <c r="AT2">
-        <v>0.49922325363472386</v>
+        <v>0.49922324732599554</v>
       </c>
       <c r="AU2">
-        <v>2.5176715896893476</v>
+        <v>2.5176715616456242</v>
       </c>
       <c r="AV2">
-        <v>0.6644271217000467</v>
+        <v>0.6644271127507394</v>
       </c>
       <c r="AW2">
-        <v>0.54157306546357575</v>
+        <v>0.54157305890699647</v>
       </c>
       <c r="AX2">
-        <v>0.68098690038439391</v>
+        <v>0.68098689348312058</v>
       </c>
       <c r="AY2">
-        <v>0.62928637504086993</v>
+        <v>0.62928636655189285</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.0788419838937324</v>
+      </c>
+      <c r="C3">
+        <v>0.74261906733858574</v>
+      </c>
+      <c r="D3">
+        <v>1.2336307903354626</v>
+      </c>
+      <c r="E3">
+        <v>4.3186396074877074</v>
+      </c>
+      <c r="F3">
+        <v>0.41643813529895618</v>
+      </c>
+      <c r="G3">
+        <v>1.2284000022589279</v>
+      </c>
+      <c r="H3">
+        <v>1.8709189215961726</v>
+      </c>
+      <c r="I3">
+        <v>1.1421598823463841</v>
+      </c>
+      <c r="J3">
+        <v>1.2374246113939318</v>
+      </c>
+      <c r="K3">
+        <v>1.7671537614028106</v>
+      </c>
+      <c r="L3">
+        <v>1.2567426336052101</v>
+      </c>
+      <c r="M3">
+        <v>1.4684420874994595</v>
+      </c>
+      <c r="N3">
         <v>1.3703464467278372</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>0.95181260226671338</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.8738655241090161</v>
+      </c>
+      <c r="Q3">
+        <v>1.0982390383658991</v>
+      </c>
+      <c r="R3">
+        <v>0.75663539154710158</v>
+      </c>
+      <c r="S3">
+        <v>2.9312798367306927</v>
+      </c>
+      <c r="T3">
+        <v>1.5511506094279019</v>
+      </c>
+      <c r="U3">
+        <v>1.6520838489498457</v>
+      </c>
+      <c r="V3">
+        <v>3.7964310010383273</v>
+      </c>
+      <c r="W3">
+        <v>1.0763829384141905</v>
+      </c>
+      <c r="X3">
+        <v>1.2855763658622625</v>
+      </c>
+      <c r="Y3">
+        <v>1.2172942980493344</v>
+      </c>
+      <c r="Z3">
+        <v>0.66656286577319979</v>
+      </c>
+      <c r="AA3">
+        <v>0.64573710580884536</v>
+      </c>
+      <c r="AB3">
+        <v>0.5715004189309284</v>
+      </c>
+      <c r="AC3">
+        <v>0.58081818234326155</v>
+      </c>
+      <c r="AD3">
+        <v>1.1938182264389028</v>
+      </c>
+      <c r="AE3">
+        <v>0.38091696046154122</v>
+      </c>
+      <c r="AF3">
+        <v>0.94083363882564275</v>
+      </c>
+      <c r="AG3">
+        <v>1.2127063587271243</v>
+      </c>
+      <c r="AH3">
+        <v>0.87951174153249556</v>
+      </c>
+      <c r="AI3">
+        <v>0.8021755787309337</v>
+      </c>
+      <c r="AJ3">
+        <v>2.2978197126717528</v>
+      </c>
+      <c r="AK3">
+        <v>0.64005931980529795</v>
+      </c>
+      <c r="AL3">
+        <v>1.2502144004560687</v>
+      </c>
+      <c r="AM3">
         <v>1.4712168892325963</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>0.58953414315802211</v>
       </c>
-      <c r="F3">
-        <v>0.41643813931343321</v>
-      </c>
-      <c r="G3">
-        <v>1.2284000147427934</v>
-      </c>
-      <c r="H3">
-        <v>1.8709189412700076</v>
-      </c>
-      <c r="I3">
-        <v>1.1421598904742809</v>
-      </c>
-      <c r="J3">
-        <v>1.2374246267475106</v>
-      </c>
-      <c r="K3">
-        <v>1.7671537783940288</v>
-      </c>
-      <c r="L3">
-        <v>1.2567426474462331</v>
-      </c>
-      <c r="M3">
-        <v>1.468251777566838</v>
-      </c>
-      <c r="N3">
-        <v>1.3703464641783707</v>
-      </c>
-      <c r="O3">
-        <v>0.95181261281482687</v>
-      </c>
-      <c r="P3">
-        <v>2.8738655654933067</v>
-      </c>
-      <c r="Q3">
-        <v>1.0982390538244384</v>
-      </c>
-      <c r="R3">
-        <v>0.75663539836243421</v>
-      </c>
-      <c r="S3">
-        <v>2.931279876985462</v>
-      </c>
-      <c r="T3">
-        <v>1.5511506257217302</v>
-      </c>
-      <c r="U3">
-        <v>1.6520838650203817</v>
-      </c>
-      <c r="V3">
-        <v>3.7964310329706095</v>
-      </c>
-      <c r="W3">
-        <v>1.0763829566929748</v>
-      </c>
-      <c r="X3">
-        <v>1.2855763853816309</v>
-      </c>
-      <c r="Y3">
-        <v>1.2172943162462813</v>
-      </c>
-      <c r="Z3">
-        <v>0.66656287177427309</v>
-      </c>
-      <c r="AA3">
-        <v>0.64573711188937055</v>
-      </c>
-      <c r="AB3">
-        <v>0.57150042524255329</v>
-      </c>
-      <c r="AC3">
-        <v>0.58081818941328256</v>
-      </c>
-      <c r="AD3">
-        <v>1.1938182402847206</v>
-      </c>
-      <c r="AE3">
-        <v>0.38091696476746723</v>
-      </c>
-      <c r="AF3">
-        <v>0.94083365115385653</v>
-      </c>
-      <c r="AG3">
-        <v>1.2127063746045077</v>
-      </c>
-      <c r="AH3">
-        <v>0.87951175084653177</v>
-      </c>
-      <c r="AI3">
-        <v>0.80217559102375802</v>
-      </c>
-      <c r="AJ3">
-        <v>2.2978197339552029</v>
-      </c>
-      <c r="AK3">
-        <v>0.64005932731302839</v>
-      </c>
-      <c r="AL3">
-        <v>1.2502144165937616</v>
-      </c>
-      <c r="AM3">
-        <v>1.4712169063102896</v>
-      </c>
-      <c r="AN3">
-        <v>0.58953415021837197</v>
-      </c>
       <c r="AO3">
-        <v>1.6411689458039938</v>
+        <v>1.6411689301514356</v>
       </c>
       <c r="AP3">
-        <v>0.78752552578470247</v>
+        <v>0.78752551614781208</v>
       </c>
       <c r="AQ3">
-        <v>0.74633448332182728</v>
+        <v>0.74633447383251594</v>
       </c>
       <c r="AR3">
-        <v>1.9066325848630317</v>
+        <v>1.9066325658859204</v>
       </c>
       <c r="AS3">
-        <v>1.03283523183949</v>
+        <v>1.0328352195594082</v>
       </c>
       <c r="AT3">
-        <v>0.53719364185995011</v>
+        <v>0.53719363417610588</v>
       </c>
       <c r="AU3">
-        <v>1.9349322022301769</v>
+        <v>1.9349321814600895</v>
       </c>
       <c r="AV3">
-        <v>0.4501336776591498</v>
+        <v>0.45013367490414047</v>
       </c>
       <c r="AW3">
-        <v>0.61631414131572737</v>
+        <v>0.61631413333048712</v>
       </c>
       <c r="AX3">
-        <v>1.0911485046020919</v>
+        <v>1.0911484934631477</v>
       </c>
       <c r="AY3">
-        <v>1.457611241626465</v>
+        <v>1.4576112197281741</v>
       </c>
     </row>
   </sheetData>
